--- a/EVM of Final Project.xlsx
+++ b/EVM of Final Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\itmt-528\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA65246-7F80-4C13-A8C2-4DF44D8E850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6200459B-FB30-4EA0-8252-76C5C65DA62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>Actual Cost Worksheet</t>
   </si>
@@ -154,34 +154,19 @@
     <t>Cumulative Actual Cost (AC)</t>
   </si>
   <si>
-    <t>[Project Title]</t>
-  </si>
-  <si>
     <t>Earned Value Analysis Report</t>
   </si>
   <si>
     <t>Prepared By:</t>
   </si>
   <si>
-    <t>[Manager's Name]</t>
-  </si>
-  <si>
     <t>Date:</t>
-  </si>
-  <si>
-    <t>[Report Date]</t>
   </si>
   <si>
     <t>[42]</t>
   </si>
   <si>
-    <t>For Period:</t>
-  </si>
-  <si>
     <t>Summary:</t>
-  </si>
-  <si>
-    <t>[Use this space to write a brief summary or to record specific observations or notes]</t>
   </si>
   <si>
     <t>Planned Value (PV) or Budgeted Cost of Work Scheduled (BCWS)</t>
@@ -215,9 +200,6 @@
   </si>
   <si>
     <t>Create Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Monitoring </t>
   </si>
   <si>
     <t>Creation of Project Management Plan (PMP)</t>
@@ -312,6 +294,15 @@
   <si>
     <t>AT-4 Functionality Test</t>
   </si>
+  <si>
+    <t>Yuping Jiang</t>
+  </si>
+  <si>
+    <t>ITMS-528-DB-Project</t>
+  </si>
+  <si>
+    <t>the project was completed before the schedule</t>
+  </si>
 </sst>
 </file>
 
@@ -319,9 +310,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -394,6 +385,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -517,10 +513,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -592,18 +589,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -616,12 +601,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -689,6 +699,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Planned Value</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cmpd="sng">
               <a:solidFill>
@@ -746,45 +759,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$56:$O$56</c:f>
+              <c:f>Report!$D$55:$O$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>75.5</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.5</c:v>
+                  <c:v>137.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.5</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>202.5</c:v>
+                  <c:v>568.57999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,120 +812,13 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Earned Value</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="006500"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Report!$D$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$60:$O$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>602.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4822-4B2C-BCDD-2473D017C19A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -971,40 +877,153 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>75.5</c:v>
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>430.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4822-4B2C-BCDD-2473D017C19A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Actual Cost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$D$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$58:$O$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.5</c:v>
+                  <c:v>137.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>202.5</c:v>
+                  <c:v>424.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,12 +1167,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3003175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5229225" cy="2419350"/>
+    <xdr:ext cx="3451413" cy="2151529"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" descr="Chart 0">
@@ -1519,10 +1538,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1020"/>
+  <dimension ref="A1:Q1019"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1557,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1558,7 +1577,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1597,10 +1616,10 @@
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1619,12 +1638,12 @@
     <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="52">
+        <v>44529</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1642,7 +1661,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1660,11 +1679,9 @@
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1698,7 +1715,7 @@
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="24"/>
@@ -1718,12 +1735,12 @@
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
@@ -1738,10 +1755,10 @@
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
@@ -1756,10 +1773,10 @@
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
@@ -1774,10 +1791,10 @@
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
@@ -1792,10 +1809,10 @@
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
@@ -1810,10 +1827,10 @@
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
@@ -1828,10 +1845,10 @@
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
@@ -1846,10 +1863,10 @@
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
@@ -1864,10 +1881,10 @@
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
@@ -1900,7 +1917,7 @@
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1967,18 +1984,19 @@
       <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="39">
         <v>1.1000000000000001</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22" s="18">
-        <f t="shared" ref="C22:C33" si="0">SUM(D22:O22)</f>
-        <v>10</v>
+        <f>SUM(D22:O22)</f>
+        <v>15</v>
       </c>
       <c r="D22" s="15">
-        <v>10</v>
+        <f>2.5*6</f>
+        <v>15</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -1994,75 +2012,100 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="26"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+    <row r="23" spans="1:17" s="32" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40">
         <v>1.2</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="33">
+        <f t="shared" ref="C23:C52" si="0">SUM(D23:O23)</f>
+        <v>160</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" s="32" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
+      <c r="G23" s="16">
+        <f>(2.5*40)+(1.5*40)</f>
+        <v>160</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40">
         <v>1.3</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="33">
+      <c r="B24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="D24" s="16">
+        <f>2.5*4</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" ref="E24:G24" si="1">2.5*4</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+      <c r="A25" s="40">
         <v>1.4</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C25" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" s="16">
-        <v>20</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+        <f>2.5*3</f>
+        <v>7.5</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" ref="E25:G25" si="2">2.5*3</f>
+        <v>7.5</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -2075,22 +2118,22 @@
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46">
+      <c r="A26" s="40">
         <v>1.5</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D26" s="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="16">
-        <v>20</v>
-      </c>
+      <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -2103,18 +2146,18 @@
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="40">
         <v>1.6</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C27" s="18">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="D27" s="16">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -2131,20 +2174,20 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
+      <c r="A28" s="40">
         <v>1.7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D28" s="16">
-        <v>10</v>
-      </c>
-      <c r="E28" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
@@ -2159,19 +2202,19 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
+      <c r="A29" s="40">
         <v>1.8</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -2186,49 +2229,49 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
+    <row r="30" spans="1:17" s="49" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="44">
         <v>1.9</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46">
+        <v>1</v>
+      </c>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16">
-        <v>10</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -2243,49 +2286,49 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46">
+      <c r="A32" s="42">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>60</v>
+      <c r="B32" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="16">
-        <v>10</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16">
+        <v>1</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48">
+    <row r="33" spans="1:17" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42">
         <v>1.1200000000000001</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C33" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
@@ -2295,23 +2338,27 @@
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
       <c r="O33" s="36"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" s="37" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
-        <v>1.1299999999999999</v>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+    </row>
+    <row r="34" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="42">
+        <v>2.1</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="C34" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D34" s="16">
+        <f>2.5*8</f>
+        <v>20</v>
+      </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="16">
-        <v>10</v>
-      </c>
+      <c r="G34" s="16"/>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
@@ -2320,21 +2367,28 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48">
-        <v>2.1</v>
+      <c r="A35" s="42">
+        <v>2.2000000000000002</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="C35" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="D35" s="16">
-        <v>10</v>
-      </c>
-      <c r="E35" s="16"/>
+        <f>1.5*10</f>
+        <v>15</v>
+      </c>
+      <c r="E35" s="16">
+        <f>1.5*10</f>
+        <v>15</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="36"/>
@@ -2349,17 +2403,21 @@
       <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
-        <v>2.2000000000000002</v>
+      <c r="A36" s="42">
+        <v>2.2999999999999998</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="16">
-        <v>24</v>
-      </c>
-      <c r="E36" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="C36" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16">
+        <f>2.5*6</f>
+        <v>15</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="36"/>
@@ -2374,18 +2432,22 @@
       <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
-        <v>2.2999999999999998</v>
+      <c r="A37" s="42">
+        <v>2.4</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="C37" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="D37" s="16"/>
-      <c r="E37" s="16">
-        <v>10</v>
-      </c>
-      <c r="F37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16">
+        <f>2.5*10</f>
+        <v>25</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
@@ -2399,19 +2461,23 @@
       <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
-        <v>2.4</v>
+      <c r="A38" s="42">
+        <v>2.5</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="C38" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="16">
-        <v>20</v>
-      </c>
-      <c r="G38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16">
+        <f>1.5*10</f>
+        <v>15</v>
+      </c>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
@@ -2424,18 +2490,22 @@
       <c r="Q38" s="35"/>
     </row>
     <row r="39" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48">
-        <v>2.5</v>
+      <c r="A39" s="42">
+        <v>2.6</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="C39" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
-        <v>12</v>
+        <f>1.5*10</f>
+        <v>15</v>
       </c>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
@@ -2449,17 +2519,23 @@
       <c r="Q39" s="35"/>
     </row>
     <row r="40" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48">
-        <v>2.6</v>
+      <c r="A40" s="42">
+        <v>2.7</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="C40" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="16">
+        <f>2.5*10</f>
+        <v>25</v>
+      </c>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
@@ -2472,18 +2548,22 @@
       <c r="Q40" s="35"/>
     </row>
     <row r="41" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48">
-        <v>2.7</v>
+      <c r="A41" s="42">
+        <v>2.8</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="C41" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
-        <v>20</v>
+        <f>1.5*10</f>
+        <v>15</v>
       </c>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
@@ -2497,18 +2577,22 @@
       <c r="Q41" s="35"/>
     </row>
     <row r="42" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48">
-        <v>2.8</v>
+      <c r="A42" s="42">
+        <v>2.9</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="C42" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36">
+        <f>2.5*10</f>
+        <v>25</v>
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
@@ -2522,17 +2606,23 @@
       <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48">
-        <v>2.9</v>
+      <c r="A43" s="45">
+        <v>2.1</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="C43" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="G43" s="36">
+        <f>1.5*8</f>
+        <v>12</v>
+      </c>
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -2545,17 +2635,23 @@
       <c r="Q43" s="35"/>
     </row>
     <row r="44" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48">
-        <v>2.1</v>
+      <c r="A44" s="42">
+        <v>3.1</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="C44" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="G44" s="36">
+        <f>2.5*4</f>
+        <v>10</v>
+      </c>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
@@ -2568,17 +2664,23 @@
       <c r="Q44" s="35"/>
     </row>
     <row r="45" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="48">
-        <v>3.1</v>
+      <c r="A45" s="42">
+        <v>3.2</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="C45" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="G45" s="36">
+        <f>1.5*4</f>
+        <v>6</v>
+      </c>
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
@@ -2591,17 +2693,23 @@
       <c r="Q45" s="35"/>
     </row>
     <row r="46" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48">
-        <v>3.2</v>
+      <c r="A46" s="42">
+        <v>3.3</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="C46" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
+      <c r="G46" s="36">
+        <f>1.5*4</f>
+        <v>6</v>
+      </c>
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
@@ -2614,17 +2722,23 @@
       <c r="Q46" s="35"/>
     </row>
     <row r="47" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="48">
-        <v>3.3</v>
+      <c r="A47" s="42">
+        <v>3.4</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="C47" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="G47" s="36">
+        <f>2.5*4</f>
+        <v>10</v>
+      </c>
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
@@ -2637,17 +2751,23 @@
       <c r="Q47" s="35"/>
     </row>
     <row r="48" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48">
-        <v>3.4</v>
+      <c r="A48" s="42">
+        <v>3.5</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="C48" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="G48" s="36">
+        <f>1.5*4</f>
+        <v>6</v>
+      </c>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
@@ -2660,17 +2780,22 @@
       <c r="Q48" s="35"/>
     </row>
     <row r="49" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="48">
-        <v>3.5</v>
+      <c r="A49" s="42">
+        <v>3.6</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="C49" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
+      <c r="G49" s="36">
+        <v>10</v>
+      </c>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
@@ -2683,17 +2808,23 @@
       <c r="Q49" s="35"/>
     </row>
     <row r="50" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="48">
-        <v>3.6</v>
+      <c r="A50" s="42">
+        <v>3.7</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="C50" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="G50" s="36">
+        <f>1.5*4</f>
+        <v>6</v>
+      </c>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
@@ -2706,17 +2837,22 @@
       <c r="Q50" s="35"/>
     </row>
     <row r="51" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48">
-        <v>3.7</v>
+      <c r="A51" s="42">
+        <v>4.0999999999999996</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="C51" s="18">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="G51" s="36">
+        <v>1.08</v>
+      </c>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
@@ -2729,17 +2865,22 @@
       <c r="Q51" s="35"/>
     </row>
     <row r="52" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="48">
-        <v>4.0999999999999996</v>
+      <c r="A52" s="43">
+        <v>5</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="C52" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
+      <c r="G52" s="36">
+        <v>27</v>
+      </c>
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
@@ -2751,259 +2892,293 @@
       <c r="P52" s="35"/>
       <c r="Q52" s="35"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="49">
-        <v>5</v>
-      </c>
-      <c r="B53" s="36" t="s">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="26"/>
+    </row>
+    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="28">
+        <f>SUM(C22:C53)</f>
+        <v>568.58000000000004</v>
+      </c>
+      <c r="D54" s="20">
+        <f t="shared" ref="D54:O54" si="3">SUM(D22:D53)</f>
         <v>79</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-    </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
+      <c r="E54" s="20">
+        <f t="shared" si="3"/>
+        <v>58.5</v>
+      </c>
+      <c r="F54" s="20">
+        <f t="shared" si="3"/>
+        <v>53.5</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" si="3"/>
+        <v>377.58</v>
+      </c>
+      <c r="H54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P54" s="4"/>
-      <c r="Q54" s="26"/>
+      <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="28">
-        <f>SUM(C22:C33)</f>
-        <v>84.5</v>
-      </c>
-      <c r="D55" s="20">
-        <f t="shared" ref="D55:O55" si="1">SUM(D22:D54)</f>
-        <v>75.5</v>
-      </c>
-      <c r="E55" s="20">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="F55" s="20">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="G55" s="20">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="H55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B55" s="19"/>
+      <c r="C55" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="4">
+        <f>IF(ISBLANK(D21),NA(),SUM($D54:D54))</f>
+        <v>79</v>
+      </c>
+      <c r="E55" s="4">
+        <f>IF(ISBLANK(E21),NA(),SUM($D54:E54))</f>
+        <v>137.5</v>
+      </c>
+      <c r="F55" s="4">
+        <f>IF(ISBLANK(F21),NA(),SUM($D54:F54))</f>
+        <v>191</v>
+      </c>
+      <c r="G55" s="4">
+        <f>IF(ISBLANK(G21),NA(),SUM($D54:G54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="H55" s="4">
+        <f>IF(ISBLANK(H21),NA(),SUM($D54:H54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="I55" s="4">
+        <f>IF(ISBLANK(I21),NA(),SUM($D54:I54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="J55" s="4">
+        <f>IF(ISBLANK(J21),NA(),SUM($D54:J54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="K55" s="4">
+        <f>IF(ISBLANK(K21),NA(),SUM($D54:K54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="L55" s="4">
+        <f>IF(ISBLANK(L21),NA(),SUM($D54:L54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="M55" s="4">
+        <f>IF(ISBLANK(M21),NA(),SUM($D54:M54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="N55" s="4">
+        <f>IF(ISBLANK(N21),NA(),SUM($D54:N54))</f>
+        <v>568.57999999999993</v>
+      </c>
+      <c r="O55" s="4">
+        <f>IF(ISBLANK(O21),NA(),SUM($D54:O54))</f>
+        <v>568.57999999999993</v>
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="4">
-        <f>IF(ISBLANK(D21),NA(),SUM($D55:D55))</f>
-        <v>75.5</v>
-      </c>
-      <c r="E56" s="4">
-        <f>IF(ISBLANK(E21),NA(),SUM($D55:E55))</f>
-        <v>96.5</v>
-      </c>
-      <c r="F56" s="4">
-        <f>IF(ISBLANK(F21),NA(),SUM($D55:F55))</f>
-        <v>127.5</v>
-      </c>
-      <c r="G56" s="4">
-        <f>IF(ISBLANK(G21),NA(),SUM($D55:G55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="H56" s="4">
-        <f>IF(ISBLANK(H21),NA(),SUM($D55:H55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="I56" s="4">
-        <f>IF(ISBLANK(I21),NA(),SUM($D55:I55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="J56" s="4">
-        <f>IF(ISBLANK(J21),NA(),SUM($D55:J55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="K56" s="4">
-        <f>IF(ISBLANK(K21),NA(),SUM($D55:K55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="L56" s="4">
-        <f>IF(ISBLANK(L21),NA(),SUM($D55:L55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="M56" s="4">
-        <f>IF(ISBLANK(M21),NA(),SUM($D55:M55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="N56" s="4">
-        <f>IF(ISBLANK(N21),NA(),SUM($D55:N55))</f>
-        <v>202.5</v>
-      </c>
-      <c r="O56" s="4">
-        <f>IF(ISBLANK(O21),NA(),SUM($D55:O55))</f>
-        <v>202.5</v>
-      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="Q58" s="2"/>
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="16">
+        <f>AC!D43</f>
+        <v>65.5</v>
+      </c>
+      <c r="E58" s="16">
+        <f>AC!E43</f>
+        <v>96.5</v>
+      </c>
+      <c r="F58" s="16">
+        <f>AC!F43</f>
+        <v>137.5</v>
+      </c>
+      <c r="G58" s="16">
+        <f>AC!G43</f>
+        <v>424.58</v>
+      </c>
+      <c r="H58" s="16">
+        <f>AC!H43</f>
+        <v>424.58</v>
+      </c>
+      <c r="I58" s="16">
+        <f>AC!I43</f>
+        <v>424.58</v>
+      </c>
+      <c r="J58" s="16">
+        <f>AC!J43</f>
+        <v>424.58</v>
+      </c>
+      <c r="K58" s="16">
+        <f>AC!K43</f>
+        <v>424.58</v>
+      </c>
+      <c r="L58" s="16">
+        <f>AC!L43</f>
+        <v>424.58</v>
+      </c>
+      <c r="M58" s="16">
+        <f>AC!M43</f>
+        <v>424.58</v>
+      </c>
+      <c r="N58" s="16">
+        <f>AC!N43</f>
+        <v>424.58</v>
+      </c>
+      <c r="O58" s="16">
+        <f>AC!O43</f>
+        <v>424.58</v>
+      </c>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="26"/>
     </row>
     <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="21" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D59" s="16">
-        <f>AC!D44</f>
-        <v>75.5</v>
+        <f>EV!D41</f>
+        <v>134</v>
       </c>
       <c r="E59" s="16">
-        <f>AC!E44</f>
-        <v>96.5</v>
+        <f>EV!E41</f>
+        <v>141</v>
       </c>
       <c r="F59" s="16">
-        <f>AC!F44</f>
-        <v>127.5</v>
+        <f>EV!F41</f>
+        <v>208.5</v>
       </c>
       <c r="G59" s="16">
-        <f>AC!G44</f>
-        <v>202.5</v>
+        <f>EV!G41</f>
+        <v>430.08</v>
       </c>
       <c r="H59" s="16">
-        <f>AC!H44</f>
-        <v>202.5</v>
+        <f>EV!H41</f>
+        <v>0</v>
       </c>
       <c r="I59" s="16">
-        <f>AC!I44</f>
-        <v>202.5</v>
+        <f>EV!I41</f>
+        <v>0</v>
       </c>
       <c r="J59" s="16">
-        <f>AC!J44</f>
-        <v>202.5</v>
+        <f>EV!J41</f>
+        <v>0</v>
       </c>
       <c r="K59" s="16">
-        <f>AC!K44</f>
-        <v>202.5</v>
+        <f>EV!K41</f>
+        <v>0</v>
       </c>
       <c r="L59" s="16">
-        <f>AC!L44</f>
-        <v>202.5</v>
+        <f>EV!L41</f>
+        <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f>AC!M44</f>
-        <v>202.5</v>
+        <f>EV!M41</f>
+        <v>0</v>
       </c>
       <c r="N59" s="16">
-        <f>AC!N44</f>
-        <v>202.5</v>
+        <f>EV!N41</f>
+        <v>0</v>
       </c>
       <c r="O59" s="16">
-        <f>AC!O44</f>
-        <v>202.5</v>
+        <f>EV!O41</f>
+        <v>0</v>
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="26"/>
@@ -3011,152 +3186,151 @@
     <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="16">
-        <f>EV!D42</f>
-        <v>602.25</v>
-      </c>
-      <c r="E60" s="16">
-        <f>EV!E42</f>
-        <v>101</v>
-      </c>
-      <c r="F60" s="16">
-        <f>EV!F42</f>
-        <v>101</v>
-      </c>
-      <c r="G60" s="16">
-        <f>EV!G42</f>
-        <v>401</v>
-      </c>
-      <c r="H60" s="16">
-        <f>EV!H42</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="16">
-        <f>EV!I42</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="16">
-        <f>EV!J42</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="16">
-        <f>EV!K42</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="16">
-        <f>EV!L42</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="16">
-        <f>EV!M42</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="16">
-        <f>EV!N42</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="16">
-        <f>EV!O42</f>
-        <v>0</v>
-      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="26"/>
-    </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="C62" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="21">
+        <f t="shared" ref="D62:O62" si="4">IF(AND(ISBLANK(D58),ISBLANK(D59))," - ",D59-D58)</f>
+        <v>68.5</v>
+      </c>
+      <c r="E62" s="21">
+        <f t="shared" si="4"/>
+        <v>44.5</v>
+      </c>
+      <c r="F62" s="21">
+        <f>IF(AND(ISBLANK(F58),ISBLANK(F59))," - ",F59-F58)</f>
+        <v>71</v>
+      </c>
+      <c r="G62" s="21">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="H62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
+      <c r="I62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
+      <c r="J62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
+      <c r="K62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
+      <c r="L62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
+      <c r="M62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
+      <c r="N62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
+      <c r="O62" s="21">
+        <f t="shared" si="4"/>
+        <v>-424.58</v>
+      </c>
       <c r="Q62" s="2"/>
     </row>
     <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D63" s="21">
-        <f t="shared" ref="D63:O63" si="2">IF(AND(ISBLANK(D59),ISBLANK(D60))," - ",D60-D59)</f>
-        <v>526.75</v>
+        <f t="shared" ref="D63:O63" si="5">IF(AND(ISBLANK(D58),ISBLANK(D59))," - ",D59-D55)</f>
+        <v>55</v>
       </c>
       <c r="E63" s="21">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
+        <f t="shared" si="5"/>
+        <v>3.5</v>
       </c>
       <c r="F63" s="21">
-        <f>IF(AND(ISBLANK(F59),ISBLANK(F60))," - ",F60-F59)</f>
-        <v>-26.5</v>
+        <f t="shared" si="5"/>
+        <v>17.5</v>
       </c>
       <c r="G63" s="21">
-        <f t="shared" si="2"/>
-        <v>198.5</v>
+        <f>IF(AND(ISBLANK(G58),ISBLANK(G59))," - ",G59-G55)</f>
+        <v>-138.49999999999994</v>
       </c>
       <c r="H63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="I63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="J63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="K63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="L63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="M63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="N63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="O63" s="21">
-        <f t="shared" si="2"/>
-        <v>-202.5</v>
+        <f t="shared" si="5"/>
+        <v>-568.57999999999993</v>
       </c>
       <c r="Q63" s="2"/>
     </row>
@@ -3164,55 +3338,55 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="21">
-        <f t="shared" ref="D64:O64" si="3">IF(AND(ISBLANK(D59),ISBLANK(D60))," - ",D60-D56)</f>
-        <v>526.75</v>
-      </c>
-      <c r="E64" s="21">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="F64" s="21">
-        <f t="shared" si="3"/>
-        <v>-26.5</v>
-      </c>
-      <c r="G64" s="21">
-        <f t="shared" si="3"/>
-        <v>198.5</v>
-      </c>
-      <c r="H64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
-      </c>
-      <c r="I64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
-      </c>
-      <c r="J64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
-      </c>
-      <c r="K64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
-      </c>
-      <c r="L64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
-      </c>
-      <c r="M64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
-      </c>
-      <c r="N64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
-      </c>
-      <c r="O64" s="21">
-        <f t="shared" si="3"/>
-        <v>-202.5</v>
+        <v>41</v>
+      </c>
+      <c r="D64" s="29">
+        <f t="shared" ref="D64:O64" si="6">IF(AND(ISBLANK(D58),ISBLANK(D59))," - ",D59/D58)</f>
+        <v>2.0458015267175571</v>
+      </c>
+      <c r="E64" s="29">
+        <f t="shared" si="6"/>
+        <v>1.4611398963730571</v>
+      </c>
+      <c r="F64" s="29">
+        <f t="shared" si="6"/>
+        <v>1.5163636363636364</v>
+      </c>
+      <c r="G64" s="29">
+        <f t="shared" si="6"/>
+        <v>1.0129539780488954</v>
+      </c>
+      <c r="H64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="Q64" s="2"/>
     </row>
@@ -3220,54 +3394,54 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D65" s="29">
-        <f t="shared" ref="D65:O65" si="4">IF(AND(ISBLANK(D59),ISBLANK(D60))," - ",D60/D59)</f>
-        <v>7.9768211920529799</v>
+        <f t="shared" ref="D65:O65" si="7">IF(AND(ISBLANK(D58),ISBLANK(D59))," - ",D59/D55)</f>
+        <v>1.6962025316455696</v>
       </c>
       <c r="E65" s="29">
-        <f t="shared" si="4"/>
-        <v>1.0466321243523315</v>
+        <f t="shared" si="7"/>
+        <v>1.0254545454545454</v>
       </c>
       <c r="F65" s="29">
-        <f t="shared" si="4"/>
-        <v>0.792156862745098</v>
+        <f t="shared" si="7"/>
+        <v>1.0916230366492146</v>
       </c>
       <c r="G65" s="29">
-        <f t="shared" si="4"/>
-        <v>1.980246913580247</v>
+        <f t="shared" si="7"/>
+        <v>0.75641070737627081</v>
       </c>
       <c r="H65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q65" s="2"/>
@@ -3276,112 +3450,74 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D66" s="29">
-        <f t="shared" ref="D66:O66" si="5">IF(AND(ISBLANK(D59),ISBLANK(D60))," - ",D60/D56)</f>
-        <v>7.9768211920529799</v>
-      </c>
-      <c r="E66" s="29">
-        <f t="shared" si="5"/>
-        <v>1.0466321243523315</v>
-      </c>
-      <c r="F66" s="29">
-        <f t="shared" si="5"/>
-        <v>0.792156862745098</v>
-      </c>
-      <c r="G66" s="29">
-        <f t="shared" si="5"/>
-        <v>1.980246913580247</v>
-      </c>
-      <c r="H66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="29">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D66" s="30">
+        <f t="shared" ref="D66:O66" si="8">IF(AND(ISBLANK(D58),ISBLANK(D59))," - ",$C$54/D64)</f>
+        <v>277.92529850746274</v>
+      </c>
+      <c r="E66" s="30">
+        <f t="shared" si="8"/>
+        <v>389.1345390070922</v>
+      </c>
+      <c r="F66" s="30">
+        <f t="shared" si="8"/>
+        <v>374.96282973621106</v>
+      </c>
+      <c r="G66" s="30">
+        <f t="shared" si="8"/>
+        <v>561.30881789434522</v>
+      </c>
+      <c r="H66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q66" s="2"/>
     </row>
     <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="30">
-        <f t="shared" ref="D67:O67" si="6">IF(AND(ISBLANK(D59),ISBLANK(D60))," - ",$C$55/D65)</f>
-        <v>10.593192195931922</v>
-      </c>
-      <c r="E67" s="30">
-        <f t="shared" si="6"/>
-        <v>80.735148514851488</v>
-      </c>
-      <c r="F67" s="30">
-        <f t="shared" si="6"/>
-        <v>106.67079207920793</v>
-      </c>
-      <c r="G67" s="30">
-        <f t="shared" si="6"/>
-        <v>42.671446384039896</v>
-      </c>
-      <c r="H67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
     <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20520,24 +20656,6 @@
       <c r="O1019" s="2"/>
       <c r="Q1019" s="2"/>
     </row>
-    <row r="1020" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="2"/>
-      <c r="B1020" s="2"/>
-      <c r="C1020" s="2"/>
-      <c r="D1020" s="2"/>
-      <c r="E1020" s="2"/>
-      <c r="F1020" s="2"/>
-      <c r="G1020" s="2"/>
-      <c r="H1020" s="2"/>
-      <c r="I1020" s="2"/>
-      <c r="J1020" s="2"/>
-      <c r="K1020" s="2"/>
-      <c r="L1020" s="2"/>
-      <c r="M1020" s="2"/>
-      <c r="N1020" s="2"/>
-      <c r="O1020" s="2"/>
-      <c r="Q1020" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C5:D5"/>
@@ -20545,22 +20663,22 @@
     <mergeCell ref="B10:E18"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="D65:O66">
+  <conditionalFormatting sqref="D64:O65">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:O66">
+  <conditionalFormatting sqref="D64:O65">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:O64">
+  <conditionalFormatting sqref="D62:O63">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:O64">
+  <conditionalFormatting sqref="D62:O63">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -20577,10 +20695,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1020"/>
+  <dimension ref="A1:Q1019"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20784,22 +20902,22 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="39">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <f>Report!C22</f>
-        <v>10</v>
-      </c>
-      <c r="D9" s="15">
-        <v>10</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="50">
+        <v>1</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -20811,20 +20929,28 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+      <c r="A10" s="40">
         <v>1.2</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>50</v>
+      <c r="B10" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="2">
         <f>Report!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="51">
+        <v>1</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -20836,20 +20962,28 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="40">
         <v>1.3</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>51</v>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="2">
         <f>Report!C24</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="51">
+        <v>1</v>
+      </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -20861,22 +20995,28 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+      <c r="A12" s="40">
         <v>1.4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2">
         <f>Report!C25</f>
-        <v>20</v>
-      </c>
-      <c r="D12" s="16">
-        <v>20</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="51">
+        <v>1</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -20888,22 +21028,22 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="A13" s="40">
         <v>1.5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
         <f>Report!C26</f>
-        <v>20</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16">
-        <v>20</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="51">
+        <v>1</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -20915,22 +21055,22 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="40">
         <v>1.6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2">
         <f>Report!C27</f>
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="51">
+        <v>1</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -20942,22 +21082,22 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="40">
         <v>1.7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2">
         <f>Report!C28</f>
-        <v>10</v>
-      </c>
-      <c r="D15" s="16">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51">
+        <v>1</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -20969,22 +21109,22 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="A16" s="40">
         <v>1.8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2">
         <f>Report!C29</f>
+        <v>10</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51">
         <v>1</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -20996,22 +21136,22 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
+      <c r="A17" s="44">
         <v>1.9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2">
         <f>Report!C30</f>
-        <v>10</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
-        <v>10</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51">
+        <v>1</v>
+      </c>
+      <c r="G17" s="51"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -21023,22 +21163,22 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
+      <c r="A18" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2">
         <f>Report!C31</f>
+        <v>10</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51">
         <v>1</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -21050,22 +21190,22 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="42">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
+      <c r="B19" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="2">
         <f>Report!C32</f>
-        <v>10</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16">
-        <v>10</v>
-      </c>
-      <c r="G19" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51">
+        <v>1</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -21076,21 +21216,21 @@
       <c r="O19" s="14"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48">
+    <row r="20" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
         <v>1.1200000000000001</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4">
         <f>Report!C33</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+        <v>10</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51">
         <v>1</v>
       </c>
       <c r="H20" s="14"/>
@@ -21101,25 +21241,25 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
-        <v>1.1299999999999999</v>
+      <c r="A21" s="42">
+        <v>2.1</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4">
         <f>Report!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D21" s="51">
+        <v>1</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -21131,22 +21271,22 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
-        <v>2.1</v>
+      <c r="A22" s="42">
+        <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4">
         <f>Report!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="51">
+        <v>1</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -21158,22 +21298,22 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
-        <v>2.2000000000000002</v>
+      <c r="A23" s="42">
+        <v>2.2999999999999998</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4">
         <f>Report!C36</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>24</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51">
+        <v>1</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -21185,22 +21325,22 @@
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48">
-        <v>2.2999999999999998</v>
+      <c r="A24" s="42">
+        <v>2.4</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4">
         <f>Report!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51">
+        <v>1</v>
+      </c>
+      <c r="G24" s="51"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -21212,22 +21352,22 @@
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48">
-        <v>2.4</v>
+      <c r="A25" s="42">
+        <v>2.5</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4">
         <f>Report!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16">
-        <v>20</v>
-      </c>
-      <c r="G25" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51">
+        <v>1</v>
+      </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -21239,21 +21379,21 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48">
-        <v>2.5</v>
+      <c r="A26" s="42">
+        <v>2.6</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4">
         <f>Report!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51">
+        <v>1</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -21266,20 +21406,22 @@
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48">
-        <v>2.6</v>
+      <c r="A27" s="42">
+        <v>2.7</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4">
         <f>Report!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51">
+        <v>1</v>
+      </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -21291,21 +21433,21 @@
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
-        <v>2.7</v>
+      <c r="A28" s="42">
+        <v>2.8</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4">
         <f>Report!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51">
+        <v>1</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -21318,21 +21460,21 @@
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48">
-        <v>2.8</v>
+      <c r="A29" s="42">
+        <v>2.9</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4">
         <f>Report!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51">
+        <v>1</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -21345,20 +21487,22 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48">
-        <v>2.9</v>
+      <c r="A30" s="42">
+        <v>2.1</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4">
         <f>Report!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51">
+        <v>1</v>
+      </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -21370,20 +21514,22 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48">
-        <v>2.1</v>
+      <c r="A31" s="42">
+        <v>3.1</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4">
         <f>Report!C44</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51">
+        <v>1</v>
+      </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -21395,20 +21541,22 @@
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48">
-        <v>3.1</v>
+      <c r="A32" s="42">
+        <v>3.2</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4">
         <f>Report!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51">
+        <v>1</v>
+      </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -21420,20 +21568,22 @@
       <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48">
-        <v>3.2</v>
+      <c r="A33" s="42">
+        <v>3.3</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4">
         <f>Report!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51">
+        <v>1</v>
+      </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -21445,20 +21595,22 @@
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
-        <v>3.3</v>
+      <c r="A34" s="42">
+        <v>3.4</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34" s="4">
         <f>Report!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51">
+        <v>1</v>
+      </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -21470,20 +21622,22 @@
       <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48">
-        <v>3.4</v>
+      <c r="A35" s="42">
+        <v>3.5</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4">
         <f>Report!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51">
+        <v>1</v>
+      </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -21495,20 +21649,22 @@
       <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
-        <v>3.5</v>
+      <c r="A36" s="42">
+        <v>3.6</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4">
         <f>Report!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51">
+        <v>1</v>
+      </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -21520,20 +21676,22 @@
       <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
-        <v>3.6</v>
+      <c r="A37" s="42">
+        <v>3.7</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4">
         <f>Report!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51">
+        <v>1</v>
+      </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -21545,20 +21703,22 @@
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
-        <v>3.7</v>
+      <c r="A38" s="42">
+        <v>4.0999999999999996</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4">
         <f>Report!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+        <v>1.08</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51">
+        <v>1</v>
+      </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -21570,20 +21730,22 @@
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48">
-        <v>4.0999999999999996</v>
+      <c r="A39" s="43">
+        <v>5</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4">
         <f>Report!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51">
+        <v>1</v>
+      </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -21594,105 +21756,98 @@
       <c r="O39" s="14"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49">
-        <v>5</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4">
-        <f>Report!C53</f>
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="20">
+        <f>SUMPRODUCT(D9:D40,$C$9:$C$40)</f>
+        <v>134</v>
+      </c>
+      <c r="E41" s="20">
+        <f>SUMPRODUCT(E9:E40,$C$9:$C$40)</f>
+        <v>141</v>
+      </c>
+      <c r="F41" s="20">
+        <f>SUMPRODUCT(F9:F40,$C$9:$C$40)</f>
+        <v>208.5</v>
+      </c>
+      <c r="G41" s="20">
+        <f>SUMPRODUCT(G9:G40,$C$9:$C$40)</f>
+        <v>430.08</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" ref="H41:O41" si="0">SUMPRODUCT(H9:H40,$C$9:$C$40)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
+      <c r="I41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="20">
-        <f>SUMPRODUCT(D9:D41,$C$9:$C$41)</f>
-        <v>602.25</v>
-      </c>
-      <c r="E42" s="20">
-        <f t="shared" ref="D42:O42" si="0">SUMPRODUCT(E9:E41,$C$9:$C$41)</f>
-        <v>101</v>
-      </c>
-      <c r="F42" s="20">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="G42" s="20">
-        <f t="shared" si="0"/>
-        <v>401</v>
-      </c>
-      <c r="H42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -39281,24 +39436,6 @@
       <c r="O1019" s="2"/>
       <c r="Q1019" s="2"/>
     </row>
-    <row r="1020" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="2"/>
-      <c r="B1020" s="2"/>
-      <c r="C1020" s="2"/>
-      <c r="D1020" s="2"/>
-      <c r="E1020" s="2"/>
-      <c r="F1020" s="2"/>
-      <c r="G1020" s="2"/>
-      <c r="H1020" s="2"/>
-      <c r="I1020" s="2"/>
-      <c r="J1020" s="2"/>
-      <c r="K1020" s="2"/>
-      <c r="L1020" s="2"/>
-      <c r="M1020" s="2"/>
-      <c r="N1020" s="2"/>
-      <c r="O1020" s="2"/>
-      <c r="Q1020" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39310,10 +39447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1020"/>
+  <dimension ref="A1:Q1019"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39510,11 +39647,11 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="39">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="15">
@@ -39534,17 +39671,19 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+      <c r="A10" s="40">
         <v>1.2</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>50</v>
+      <c r="B10" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16">
+        <v>96</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -39556,17 +39695,25 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="40">
         <v>1.3</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>51</v>
+      <c r="B11" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -39578,19 +39725,25 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+      <c r="A12" s="40">
         <v>1.4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="16">
-        <v>20</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+      <c r="F12" s="16">
+        <v>5</v>
+      </c>
+      <c r="G12" s="16">
+        <v>5</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -39602,19 +39755,19 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="A13" s="40">
         <v>1.5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>1.5</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="16">
-        <v>20</v>
-      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -39626,15 +39779,15 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="40">
         <v>1.6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="16">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -39650,17 +39803,17 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="40">
         <v>1.7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="16">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -39674,16 +39827,16 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="A16" s="40">
         <v>1.8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -39698,19 +39851,19 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
+      <c r="A17" s="44">
         <v>1.9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
-        <v>10</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46">
+        <v>1</v>
+      </c>
+      <c r="G17" s="46"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -39722,17 +39875,17 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
+      <c r="A18" s="41">
         <v>1.1000000000000001</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -39746,19 +39899,19 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="42">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
+      <c r="B19" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="16">
-        <v>10</v>
-      </c>
-      <c r="G19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
@@ -39769,19 +39922,19 @@
       <c r="O19" s="16"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48">
+    <row r="20" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
         <v>1.1200000000000001</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -39791,22 +39944,22 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
-        <v>1.1299999999999999</v>
+      <c r="A21" s="42">
+        <v>2.1</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="16">
+        <v>10</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="16">
-        <v>10</v>
-      </c>
+      <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -39818,15 +39971,15 @@
       <c r="Q21" s="4"/>
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
-        <v>2.1</v>
+      <c r="A22" s="42">
+        <v>2.2000000000000002</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="16">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -39842,17 +39995,17 @@
       <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
-        <v>2.2000000000000002</v>
+      <c r="A23" s="42">
+        <v>2.2999999999999998</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="16">
-        <v>24</v>
-      </c>
-      <c r="E23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16">
+        <v>10</v>
+      </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -39866,18 +40019,18 @@
       <c r="Q23" s="4"/>
     </row>
     <row r="24" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48">
-        <v>2.2999999999999998</v>
+      <c r="A24" s="42">
+        <v>2.4</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="16">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16">
+        <v>20</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -39890,19 +40043,19 @@
       <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48">
-        <v>2.4</v>
+      <c r="A25" s="42">
+        <v>2.5</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="16">
-        <v>20</v>
-      </c>
-      <c r="G25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16">
+        <v>12</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -39914,11 +40067,11 @@
       <c r="Q25" s="4"/>
     </row>
     <row r="26" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48">
-        <v>2.5</v>
+      <c r="A26" s="42">
+        <v>2.6</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="16"/>
@@ -39938,17 +40091,19 @@
       <c r="Q26" s="4"/>
     </row>
     <row r="27" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48">
-        <v>2.6</v>
+      <c r="A27" s="42">
+        <v>2.7</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="16">
+        <v>20</v>
+      </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
@@ -39960,18 +40115,18 @@
       <c r="Q27" s="4"/>
     </row>
     <row r="28" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
-        <v>2.7</v>
+      <c r="A28" s="42">
+        <v>2.8</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -39984,18 +40139,18 @@
       <c r="Q28" s="4"/>
     </row>
     <row r="29" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48">
-        <v>2.8</v>
+      <c r="A29" s="42">
+        <v>2.9</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16">
-        <v>12</v>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36">
+        <v>20</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -40008,17 +40163,19 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48">
-        <v>2.9</v>
+      <c r="A30" s="45">
+        <v>2.1</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36">
+        <v>12</v>
+      </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -40030,17 +40187,19 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48">
-        <v>2.1</v>
+      <c r="A31" s="42">
+        <v>3.1</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36">
+        <v>10</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -40052,17 +40211,19 @@
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48">
-        <v>3.1</v>
+      <c r="A32" s="42">
+        <v>3.2</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36">
+        <v>6</v>
+      </c>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -40074,17 +40235,19 @@
       <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48">
-        <v>3.2</v>
+      <c r="A33" s="42">
+        <v>3.3</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36">
+        <v>6</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
@@ -40096,17 +40259,19 @@
       <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
-        <v>3.3</v>
+      <c r="A34" s="42">
+        <v>3.4</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36">
+        <v>10</v>
+      </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -40118,17 +40283,19 @@
       <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48">
-        <v>3.4</v>
+      <c r="A35" s="42">
+        <v>3.5</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36">
+        <v>6</v>
+      </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
@@ -40140,17 +40307,19 @@
       <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
-        <v>3.5</v>
+      <c r="A36" s="42">
+        <v>3.6</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36">
+        <v>10</v>
+      </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -40162,17 +40331,19 @@
       <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
-        <v>3.6</v>
+      <c r="A37" s="42">
+        <v>3.7</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36">
+        <v>6</v>
+      </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
@@ -40184,17 +40355,19 @@
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
-        <v>3.7</v>
+      <c r="A38" s="42">
+        <v>4.0999999999999996</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36">
+        <v>1.08</v>
+      </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
@@ -40206,17 +40379,19 @@
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48">
-        <v>4.0999999999999996</v>
+      <c r="A39" s="43">
+        <v>5</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36">
+        <v>27</v>
+      </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -40227,176 +40402,172 @@
       <c r="O39" s="16"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="1:17" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49">
-        <v>5</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="Q40" s="4"/>
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="20">
+        <f t="shared" ref="D41:O41" si="0">SUM(D9:D40)</f>
+        <v>65.5</v>
+      </c>
+      <c r="E41" s="20">
+        <f>SUM(E9:E40)</f>
+        <v>31</v>
+      </c>
+      <c r="F41" s="20">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G41" s="20">
+        <f t="shared" si="0"/>
+        <v>287.08</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="20">
-        <f>SUM(D9:D41)</f>
-        <v>75.5</v>
-      </c>
-      <c r="E42" s="20">
-        <f>SUM(E9:E41)</f>
-        <v>21</v>
-      </c>
-      <c r="F42" s="20">
-        <f>SUM(F9:F41)</f>
-        <v>31</v>
-      </c>
-      <c r="G42" s="20">
-        <f>SUM(G9:G41)</f>
-        <v>75</v>
-      </c>
-      <c r="H42" s="20">
-        <f>SUM(H9:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="20">
-        <f>SUM(I9:I41)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="20">
-        <f>SUM(J9:J41)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="20">
-        <f>SUM(K9:K41)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="20">
-        <f>SUM(L9:L41)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="20">
-        <f>SUM(M9:M41)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="20">
-        <f>SUM(N9:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="20">
-        <f>SUM(O9:O41)</f>
-        <v>0</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="C43" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="22">
+        <f t="shared" ref="D43:O43" si="1">SUM($D41:D41)</f>
+        <v>65.5</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" si="1"/>
+        <v>96.5</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+      <c r="G43" s="22">
+        <f>SUM($D41:G41)</f>
+        <v>424.58</v>
+      </c>
+      <c r="H43" s="22">
+        <f>SUM($D41:H41)</f>
+        <v>424.58</v>
+      </c>
+      <c r="I43" s="22">
+        <f t="shared" si="1"/>
+        <v>424.58</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" si="1"/>
+        <v>424.58</v>
+      </c>
+      <c r="K43" s="22">
+        <f t="shared" si="1"/>
+        <v>424.58</v>
+      </c>
+      <c r="L43" s="22">
+        <f t="shared" si="1"/>
+        <v>424.58</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="1"/>
+        <v>424.58</v>
+      </c>
+      <c r="N43" s="22">
+        <f t="shared" si="1"/>
+        <v>424.58</v>
+      </c>
+      <c r="O43" s="22">
+        <f t="shared" si="1"/>
+        <v>424.58</v>
+      </c>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="22">
-        <f t="shared" ref="D44:O44" si="0">SUM($D42:D42)</f>
-        <v>75.5</v>
-      </c>
-      <c r="E44" s="22">
-        <f t="shared" si="0"/>
-        <v>96.5</v>
-      </c>
-      <c r="F44" s="22">
-        <f t="shared" si="0"/>
-        <v>127.5</v>
-      </c>
-      <c r="G44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="H44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="I44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="J44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="K44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="L44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="M44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="N44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
-      <c r="O44" s="22">
-        <f t="shared" si="0"/>
-        <v>202.5</v>
-      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -57949,24 +58120,6 @@
       <c r="O1019" s="2"/>
       <c r="Q1019" s="2"/>
     </row>
-    <row r="1020" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="2"/>
-      <c r="B1020" s="2"/>
-      <c r="C1020" s="2"/>
-      <c r="D1020" s="2"/>
-      <c r="E1020" s="2"/>
-      <c r="F1020" s="2"/>
-      <c r="G1020" s="2"/>
-      <c r="H1020" s="2"/>
-      <c r="I1020" s="2"/>
-      <c r="J1020" s="2"/>
-      <c r="K1020" s="2"/>
-      <c r="L1020" s="2"/>
-      <c r="M1020" s="2"/>
-      <c r="N1020" s="2"/>
-      <c r="O1020" s="2"/>
-      <c r="Q1020" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
